--- a/Lab1/Testing/Rezultate.xlsx
+++ b/Lab1/Testing/Rezultate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PPD\LAB\PPD-LAB\Parallel-and-Distributed-Programming\Lab1\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDBE617-8399-49A3-9274-07469DEA40DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FED2D79-45A8-4E1E-9EF2-57BD1FE16CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,6 +427,7 @@
     <col min="6" max="6" width="32" customWidth="1"/>
     <col min="7" max="7" width="18.88671875" customWidth="1"/>
     <col min="8" max="8" width="41.5546875" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
     <col min="11" max="11" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Lab1/Testing/Rezultate.xlsx
+++ b/Lab1/Testing/Rezultate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PPD\LAB\PPD-LAB\Parallel-and-Distributed-Programming\Lab1\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FED2D79-45A8-4E1E-9EF2-57BD1FE16CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7956CACE-6E29-489C-886F-AACACB54440A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1296" yWindow="684" windowWidth="13836" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
     <col min="3" max="3" width="22.109375" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
     <col min="7" max="7" width="18.88671875" customWidth="1"/>
-    <col min="8" max="8" width="41.5546875" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.6640625" customWidth="1"/>
     <col min="11" max="11" width="12.21875" customWidth="1"/>
   </cols>
